--- a/Assets/Resources/excelData/AllItem.xlsx
+++ b/Assets/Resources/excelData/AllItem.xlsx
@@ -439,10 +439,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">

--- a/Assets/Resources/excelData/AllItem.xlsx
+++ b/Assets/Resources/excelData/AllItem.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>itemName</t>
   </si>
@@ -74,6 +74,22 @@
   </si>
   <si>
     <t>飲むと少しだけ元気が出る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使うとなにか起きる!(テストアイテム)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FA-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -488,6 +504,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
